--- a/Excel/MapConfig.xlsx
+++ b/Excel/MapConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
   <si>
     <t>Id</t>
   </si>
@@ -31,6 +31,18 @@
     <t>UI地图塔的位置Y</t>
   </si>
   <si>
+    <t>出怪波次信息UI坐标X</t>
+  </si>
+  <si>
+    <t>出怪波次信息UI坐标Y</t>
+  </si>
+  <si>
+    <t>买怪入口UI坐标X</t>
+  </si>
+  <si>
+    <t>买怪入口UI坐标Y</t>
+  </si>
+  <si>
     <t>MapName</t>
   </si>
   <si>
@@ -49,6 +61,18 @@
     <t>PosY</t>
   </si>
   <si>
+    <t>WaveInfoX</t>
+  </si>
+  <si>
+    <t>WaveInfoY</t>
+  </si>
+  <si>
+    <t>ReleaseX</t>
+  </si>
+  <si>
+    <t>ReleaseY</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -58,22 +82,49 @@
     <t>int[]</t>
   </si>
   <si>
+    <t>#单人模式地图</t>
+  </si>
+  <si>
     <t>Map1</t>
   </si>
   <si>
+    <t>-573,-577,-190,-89,118,427,127,624</t>
+  </si>
+  <si>
+    <t>-310,-21,-45,-375,-166,93,290,300</t>
+  </si>
+  <si>
+    <t>-648,38</t>
+  </si>
+  <si>
+    <t>-438,-443</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>#双人对战模式地图</t>
+  </si>
+  <si>
+    <t>Map1001</t>
+  </si>
+  <si>
     <t>-100,-100,-350,-400,-600,-650,100,100,350,400,600,650</t>
   </si>
   <si>
     <t>250,100,150,-133,-150,-350,250,100,150,-133,-150,-350</t>
   </si>
   <si>
-    <t>Map2</t>
-  </si>
-  <si>
-    <t>-192,120,-90,-570,-570,125,425,620</t>
-  </si>
-  <si>
-    <t>-50,-155,-375,-320,-30,280,90,296</t>
+    <t>-647,647</t>
+  </si>
+  <si>
+    <t>400,400</t>
+  </si>
+  <si>
+    <t>-480,480</t>
+  </si>
+  <si>
+    <t>413,413</t>
   </si>
 </sst>
 </file>
@@ -1044,128 +1095,642 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:I7"/>
+  <dimension ref="B1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="9.875" customWidth="1"/>
-    <col min="8" max="8" width="75.125" customWidth="1"/>
-    <col min="9" max="9" width="74.5" customWidth="1"/>
+    <col min="8" max="8" width="46.875" customWidth="1"/>
+    <col min="9" max="9" width="34.5" customWidth="1"/>
+    <col min="10" max="10" width="20.75" customWidth="1"/>
+    <col min="11" max="11" width="16.125" customWidth="1"/>
+    <col min="12" max="12" width="14.875" customWidth="1"/>
+    <col min="13" max="13" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:9">
-      <c r="C3" t="s">
+    <row r="1" spans="3:13">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="3:13">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="3:13">
+      <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H3" t="s">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="3:9">
-      <c r="C4" t="s">
+      <c r="J3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="3:13">
+      <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I4" t="s">
+      <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="3:9">
-      <c r="C5" t="s">
+      <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
+      <c r="G4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="H4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="3:9">
-      <c r="C6">
+      <c r="I4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="3:13">
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="3:13">
+      <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6">
+      <c r="D7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="1">
         <v>2</v>
       </c>
-      <c r="F6">
+      <c r="F7" s="1">
+        <v>2520</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1080</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="3:13">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="3:13">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="3:13">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="3:13">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="3:13">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="3:13">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="3:13">
+      <c r="C16" s="1">
+        <v>1001</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2</v>
+      </c>
+      <c r="F16" s="1">
         <v>1920</v>
       </c>
-      <c r="G6">
+      <c r="G16" s="1">
         <v>1080</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="3:9">
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>2520</v>
-      </c>
-      <c r="G7">
-        <v>1080</v>
-      </c>
-      <c r="H7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" t="s">
-        <v>19</v>
-      </c>
+      <c r="H16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="3:13">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="3:13">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="3:13">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="3:13">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="3:13">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="3:13">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="3:13">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="3:13">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="3:13">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="3:13">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="3:13">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+    </row>
+    <row r="29" spans="3:13">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+    </row>
+    <row r="30" spans="3:13">
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+    </row>
+    <row r="31" spans="3:13">
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+    </row>
+    <row r="32" spans="3:13">
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+    </row>
+    <row r="33" spans="3:13">
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+    </row>
+    <row r="34" spans="3:13">
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+    </row>
+    <row r="35" spans="3:13">
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+    </row>
+    <row r="36" spans="3:13">
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+    </row>
+    <row r="37" spans="3:13">
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+    </row>
+    <row r="38" spans="3:13">
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+    </row>
+    <row r="39" spans="3:13">
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/MapConfig.xlsx
+++ b/Excel/MapConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
   <si>
     <t>Id</t>
   </si>
@@ -43,6 +43,9 @@
     <t>买怪入口UI坐标Y</t>
   </si>
   <si>
+    <t>买怪区域(程序用)</t>
+  </si>
+  <si>
     <t>MapName</t>
   </si>
   <si>
@@ -73,6 +76,9 @@
     <t>ReleaseY</t>
   </si>
   <si>
+    <t>ReleaseZone</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -109,22 +115,31 @@
     <t>Map1001</t>
   </si>
   <si>
-    <t>-100,-100,-350,-400,-600,-650,100,100,350,400,600,650</t>
-  </si>
-  <si>
-    <t>250,100,150,-133,-150,-350,250,100,150,-133,-150,-350</t>
-  </si>
-  <si>
-    <t>-647,647</t>
-  </si>
-  <si>
-    <t>400,400</t>
-  </si>
-  <si>
-    <t>-480,480</t>
-  </si>
-  <si>
-    <t>413,413</t>
+    <t>6</t>
+  </si>
+  <si>
+    <t>2520</t>
+  </si>
+  <si>
+    <t>-807,-476,-827,-398,-463,-109,109,463,398,827,476,807</t>
+  </si>
+  <si>
+    <t>220,220,-55,-59,-250,-299,-299,-250,-59,-55,220,220</t>
+  </si>
+  <si>
+    <t>-481,-1039,1039,481</t>
+  </si>
+  <si>
+    <t>400,206,206,400</t>
+  </si>
+  <si>
+    <t>-628,-1085,1085,628,-183,183</t>
+  </si>
+  <si>
+    <t>426,75,75,426,257,257</t>
+  </si>
+  <si>
+    <t>2,2,1,1,2,1</t>
   </si>
 </sst>
 </file>
@@ -1095,22 +1110,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:M39"/>
+  <dimension ref="B1:N39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="9.875" customWidth="1"/>
-    <col min="8" max="8" width="46.875" customWidth="1"/>
-    <col min="9" max="9" width="34.5" customWidth="1"/>
-    <col min="10" max="10" width="20.75" customWidth="1"/>
-    <col min="11" max="11" width="16.125" customWidth="1"/>
-    <col min="12" max="12" width="14.875" customWidth="1"/>
-    <col min="13" max="13" width="11.5" customWidth="1"/>
+    <col min="8" max="8" width="12.625" customWidth="1"/>
+    <col min="9" max="9" width="32.75" customWidth="1"/>
+    <col min="10" max="10" width="8.125" customWidth="1"/>
+    <col min="11" max="11" width="13.625" customWidth="1"/>
+    <col min="12" max="12" width="12.375" customWidth="1"/>
+    <col min="13" max="13" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:13">
@@ -1139,7 +1154,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="3:13">
+    <row r="3" spans="3:14">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1169,80 +1184,89 @@
       <c r="M3" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="3:13">
+      <c r="N3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="3:14">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="3:13">
+        <v>19</v>
+      </c>
+      <c r="N4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="3:14">
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="N5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="2:13">
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1261,7 +1285,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
@@ -1273,22 +1297,22 @@
         <v>1080</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="3:13">
@@ -1384,7 +1408,7 @@
     </row>
     <row r="15" spans="2:13">
       <c r="B15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1398,39 +1422,42 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="3:13">
+    <row r="16" spans="3:14">
       <c r="C16" s="1">
         <v>1001</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="1">
-        <v>2</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1920</v>
+        <v>32</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="G16" s="1">
         <v>1080</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
+      </c>
+      <c r="N16" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="3:13">

--- a/Excel/MapConfig.xlsx
+++ b/Excel/MapConfig.xlsx
@@ -100,10 +100,10 @@
     <t>-310,-21,-45,-375,-166,93,290,300</t>
   </si>
   <si>
-    <t>-648,38</t>
-  </si>
-  <si>
-    <t>-438,-443</t>
+    <t>-781,170</t>
+  </si>
+  <si>
+    <t>-443,-443</t>
   </si>
   <si>
     <t>0</t>
@@ -127,10 +127,10 @@
     <t>220,220,-55,-59,-250,-299,-299,-250,-59,-55,220,220</t>
   </si>
   <si>
-    <t>-481,-1039,1039,481</t>
-  </si>
-  <si>
-    <t>400,206,206,400</t>
+    <t>-625,-1090,1090,625</t>
+  </si>
+  <si>
+    <t>430,69,69,430</t>
   </si>
   <si>
     <t>-628,-1085,1085,628,-183,183</t>
@@ -1113,7 +1113,7 @@
   <dimension ref="B1:N39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1121,8 +1121,8 @@
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="9.875" customWidth="1"/>
     <col min="8" max="8" width="12.625" customWidth="1"/>
-    <col min="9" max="9" width="32.75" customWidth="1"/>
-    <col min="10" max="10" width="8.125" customWidth="1"/>
+    <col min="9" max="9" width="12.875" customWidth="1"/>
+    <col min="10" max="10" width="25.625" customWidth="1"/>
     <col min="11" max="11" width="13.625" customWidth="1"/>
     <col min="12" max="12" width="12.375" customWidth="1"/>
     <col min="13" max="13" width="23.5" customWidth="1"/>
